--- a/Document/인턴_김희원_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_김희원_산출물_프로덕트백로그_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1395" windowWidth="19410" windowHeight="10995"/>
+    <workbookView xWindow="1680" yWindow="1395" windowWidth="19410" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="관리자_개발목록" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="63">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -277,6 +277,84 @@
   <si>
     <t>김희원</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시 구매(PG결제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시 구매 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 구매(캐시 차감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템샵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시 회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시 사용 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 카테고리 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not started</t>
   </si>
 </sst>
 </file>
@@ -919,20 +997,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M936"/>
+  <dimension ref="A1:N936"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="13" customWidth="1"/>
     <col min="6" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
@@ -1319,12 +1397,24 @@
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="21">
+        <v>43415</v>
+      </c>
+      <c r="G15" s="21">
+        <v>43418</v>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="10"/>
       <c r="J15" s="8"/>
@@ -1335,11 +1425,21 @@
     <row r="16" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="C16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="21">
+        <v>43415</v>
+      </c>
+      <c r="G16" s="21">
+        <v>43415</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="10"/>
       <c r="J16" s="8"/>
@@ -1347,14 +1447,24 @@
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="21">
+        <v>43415</v>
+      </c>
+      <c r="G17" s="21">
+        <v>43416</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
@@ -1362,14 +1472,24 @@
       <c r="L17" s="8"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="21">
+        <v>43416</v>
+      </c>
+      <c r="G18" s="21">
+        <v>43415</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="10"/>
       <c r="J18" s="8"/>
@@ -1377,12 +1497,18 @@
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -1392,14 +1518,26 @@
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="28">
+        <v>43402</v>
+      </c>
+      <c r="G20" s="28">
+        <v>43406</v>
+      </c>
       <c r="H20" s="23"/>
       <c r="I20" s="10"/>
       <c r="J20" s="8"/>
@@ -1407,119 +1545,251 @@
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+    <row r="21" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="28">
+        <v>43402</v>
+      </c>
+      <c r="G21" s="28">
+        <v>43402</v>
+      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+    <row r="22" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="28">
+        <v>43402</v>
+      </c>
+      <c r="G22" s="28">
+        <v>43403</v>
+      </c>
+      <c r="H22" s="21"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+    <row r="23" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="21">
+        <v>43404</v>
+      </c>
+      <c r="G23" s="28">
+        <v>43406</v>
+      </c>
+      <c r="H23" s="21"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+    <row r="24" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="28">
+        <v>43404</v>
+      </c>
+      <c r="G24" s="28">
+        <v>43406</v>
+      </c>
+      <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+    <row r="25" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="28">
+        <v>43404</v>
+      </c>
+      <c r="G25" s="21">
+        <v>43406</v>
+      </c>
+      <c r="H25" s="21"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="11.45" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+    <row r="26" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="28">
+        <v>43404</v>
+      </c>
+      <c r="G26" s="21">
+        <v>43406</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+    <row r="27" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="28">
+        <v>43404</v>
+      </c>
+      <c r="G27" s="21">
+        <v>43406</v>
+      </c>
+      <c r="H27" s="21"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+    <row r="28" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="21">
+        <v>43406</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="21">
+        <v>43406</v>
+      </c>
+      <c r="G29" s="21">
+        <v>43409</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="12" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="21">
+        <v>43406</v>
+      </c>
+      <c r="G31" s="21">
+        <v>43407</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -9899,7 +10169,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="RR2:RR20 HV2:HV20 AVF2:AVF20 ALJ2:ALJ20 ABN2:ABN20 BFB2:BFB20 BOX2:BOX20 BYT2:BYT20 CIP2:CIP20 CSL2:CSL20 DCH2:DCH20 DMD2:DMD20 DVZ2:DVZ20 EFV2:EFV20 EPR2:EPR20 EZN2:EZN20 FJJ2:FJJ20 FTF2:FTF20 GDB2:GDB20 GMX2:GMX20 GWT2:GWT20 HGP2:HGP20 HQL2:HQL20 IAH2:IAH20 IKD2:IKD20 ITZ2:ITZ20 JDV2:JDV20 JNR2:JNR20 JXN2:JXN20 KHJ2:KHJ20 KRF2:KRF20 LBB2:LBB20 LKX2:LKX20 LUT2:LUT20 MEP2:MEP20 MOL2:MOL20 MYH2:MYH20 NID2:NID20 NRZ2:NRZ20 OBV2:OBV20 OLR2:OLR20 OVN2:OVN20 PFJ2:PFJ20 PPF2:PPF20 PZB2:PZB20 QIX2:QIX20 QST2:QST20 RCP2:RCP20 RML2:RML20 RWH2:RWH20 SGD2:SGD20 SPZ2:SPZ20 SZV2:SZV20 TJR2:TJR20 TTN2:TTN20 UDJ2:UDJ20 UNF2:UNF20 UXB2:UXB20 VGX2:VGX20 VQT2:VQT20 WAP2:WAP20 WKL2:WKL20 WUH2:WUH20 D2:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="RR2:RR20 HV2:HV20 AVF2:AVF20 ALJ2:ALJ20 ABN2:ABN20 BFB2:BFB20 BOX2:BOX20 BYT2:BYT20 CIP2:CIP20 CSL2:CSL20 DCH2:DCH20 DMD2:DMD20 DVZ2:DVZ20 EFV2:EFV20 EPR2:EPR20 EZN2:EZN20 FJJ2:FJJ20 FTF2:FTF20 GDB2:GDB20 GMX2:GMX20 GWT2:GWT20 HGP2:HGP20 HQL2:HQL20 IAH2:IAH20 IKD2:IKD20 ITZ2:ITZ20 JDV2:JDV20 JNR2:JNR20 JXN2:JXN20 KHJ2:KHJ20 KRF2:KRF20 LBB2:LBB20 LKX2:LKX20 LUT2:LUT20 MEP2:MEP20 MOL2:MOL20 MYH2:MYH20 NID2:NID20 NRZ2:NRZ20 OBV2:OBV20 OLR2:OLR20 OVN2:OVN20 PFJ2:PFJ20 PPF2:PPF20 PZB2:PZB20 QIX2:QIX20 QST2:QST20 RCP2:RCP20 RML2:RML20 RWH2:RWH20 SGD2:SGD20 SPZ2:SPZ20 SZV2:SZV20 TJR2:TJR20 TTN2:TTN20 UDJ2:UDJ20 UNF2:UNF20 UXB2:UXB20 VGX2:VGX20 VQT2:VQT20 WAP2:WAP20 WKL2:WKL20 WUH2:WUH20 D2:D31">
       <formula1>"Not started,In progress,Done,Cancelled,Blocked"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ABT2:ABT20 ALP2:ALP20 AVL2:AVL20 BFH2:BFH20 BPD2:BPD20 BYZ2:BYZ20 CIV2:CIV20 CSR2:CSR20 DCN2:DCN20 DMJ2:DMJ20 DWF2:DWF20 EGB2:EGB20 EPX2:EPX20 EZT2:EZT20 FJP2:FJP20 FTL2:FTL20 GDH2:GDH20 GND2:GND20 GWZ2:GWZ20 HGV2:HGV20 HQR2:HQR20 IAN2:IAN20 IKJ2:IKJ20 IUF2:IUF20 JEB2:JEB20 JNX2:JNX20 JXT2:JXT20 KHP2:KHP20 KRL2:KRL20 LBH2:LBH20 LLD2:LLD20 LUZ2:LUZ20 MEV2:MEV20 MOR2:MOR20 MYN2:MYN20 NIJ2:NIJ20 NSF2:NSF20 OCB2:OCB20 OLX2:OLX20 OVT2:OVT20 PFP2:PFP20 PPL2:PPL20 PZH2:PZH20 QJD2:QJD20 QSZ2:QSZ20 RCV2:RCV20 RMR2:RMR20 RWN2:RWN20 SGJ2:SGJ20 SQF2:SQF20 TAB2:TAB20 TJX2:TJX20 TTT2:TTT20 UDP2:UDP20 UNL2:UNL20 UXH2:UXH20 VHD2:VHD20 VQZ2:VQZ20 WAV2:WAV20 WKR2:WKR20 WUN2:WUN20 IN2:IO20 SJ2:SK20 ACF2:ACG20 AMB2:AMC20 AVX2:AVY20 BFT2:BFU20 BPP2:BPQ20 BZL2:BZM20 CJH2:CJI20 CTD2:CTE20 DCZ2:DDA20 DMV2:DMW20 DWR2:DWS20 EGN2:EGO20 EQJ2:EQK20 FAF2:FAG20 FKB2:FKC20 FTX2:FTY20 GDT2:GDU20 GNP2:GNQ20 GXL2:GXM20 HHH2:HHI20 HRD2:HRE20 IAZ2:IBA20 IKV2:IKW20 IUR2:IUS20 JEN2:JEO20 JOJ2:JOK20 JYF2:JYG20 KIB2:KIC20 KRX2:KRY20 LBT2:LBU20 LLP2:LLQ20 LVL2:LVM20 MFH2:MFI20 MPD2:MPE20 MYZ2:MZA20 NIV2:NIW20 NSR2:NSS20 OCN2:OCO20 OMJ2:OMK20 OWF2:OWG20 PGB2:PGC20 PPX2:PPY20 PZT2:PZU20 QJP2:QJQ20 QTL2:QTM20 RDH2:RDI20 RND2:RNE20 RWZ2:RXA20 SGV2:SGW20 SQR2:SQS20 TAN2:TAO20 TKJ2:TKK20 TUF2:TUG20 UEB2:UEC20 UNX2:UNY20 UXT2:UXU20 VHP2:VHQ20 VRL2:VRM20 WBH2:WBI20 WLD2:WLE20 WUZ2:WVA20 IG2:IH20 SC2:SD20 ABY2:ABZ20 ALU2:ALV20 AVQ2:AVR20 BFM2:BFN20 BPI2:BPJ20 BZE2:BZF20 CJA2:CJB20 CSW2:CSX20 DCS2:DCT20 DMO2:DMP20 DWK2:DWL20 EGG2:EGH20 EQC2:EQD20 EZY2:EZZ20 FJU2:FJV20 FTQ2:FTR20 GDM2:GDN20 GNI2:GNJ20 GXE2:GXF20 HHA2:HHB20 HQW2:HQX20 IAS2:IAT20 IKO2:IKP20 IUK2:IUL20 JEG2:JEH20 JOC2:JOD20 JXY2:JXZ20 KHU2:KHV20 KRQ2:KRR20 LBM2:LBN20 LLI2:LLJ20 LVE2:LVF20 MFA2:MFB20 MOW2:MOX20 MYS2:MYT20 NIO2:NIP20 NSK2:NSL20 OCG2:OCH20 OMC2:OMD20 OVY2:OVZ20 PFU2:PFV20 PPQ2:PPR20 PZM2:PZN20 QJI2:QJJ20 QTE2:QTF20 RDA2:RDB20 RMW2:RMX20 RWS2:RWT20 SGO2:SGP20 SQK2:SQL20 TAG2:TAH20 TKC2:TKD20 TTY2:TTZ20 UDU2:UDV20 UNQ2:UNR20 UXM2:UXN20 VHI2:VHJ20 VRE2:VRF20 WBA2:WBB20 WKW2:WKX20 WUS2:WUT20 HQ2:HR20 RM2:RN20 ABI2:ABJ20 ALE2:ALF20 AVA2:AVB20 BEW2:BEX20 BOS2:BOT20 BYO2:BYP20 CIK2:CIL20 CSG2:CSH20 DCC2:DCD20 DLY2:DLZ20 DVU2:DVV20 EFQ2:EFR20 EPM2:EPN20 EZI2:EZJ20 FJE2:FJF20 FTA2:FTB20 GCW2:GCX20 GMS2:GMT20 GWO2:GWP20 HGK2:HGL20 HQG2:HQH20 IAC2:IAD20 IJY2:IJZ20 ITU2:ITV20 JDQ2:JDR20 JNM2:JNN20 JXI2:JXJ20 KHE2:KHF20 KRA2:KRB20 LAW2:LAX20 LKS2:LKT20 LUO2:LUP20 MEK2:MEL20 MOG2:MOH20 MYC2:MYD20 NHY2:NHZ20 NRU2:NRV20 OBQ2:OBR20 OLM2:OLN20 OVI2:OVJ20 PFE2:PFF20 PPA2:PPB20 PYW2:PYX20 QIS2:QIT20 QSO2:QSP20 RCK2:RCL20 RMG2:RMH20 RWC2:RWD20 SFY2:SFZ20 SPU2:SPV20 SZQ2:SZR20 TJM2:TJN20 TTI2:TTJ20 UDE2:UDF20 UNA2:UNB20 UWW2:UWX20 VGS2:VGT20 VQO2:VQP20 WAK2:WAL20 WKG2:WKH20 WUC2:WUD20 RX2:RX20 IB2:IB20">
@@ -9934,16 +10204,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M936"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12" style="12" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="13" customWidth="1"/>
     <col min="6" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
@@ -10254,12 +10524,24 @@
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="21">
+        <v>43409</v>
+      </c>
+      <c r="G12" s="21">
+        <v>43411</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="10"/>
       <c r="J12" s="8"/>
@@ -10270,11 +10552,21 @@
     <row r="13" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="C13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="21">
+        <v>43411</v>
+      </c>
+      <c r="G13" s="21">
+        <v>43411</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="10"/>
       <c r="J13" s="8"/>
@@ -10284,11 +10576,21 @@
     </row>
     <row r="14" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="B14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="21">
+        <v>43409</v>
+      </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="10"/>
@@ -10300,10 +10602,18 @@
     <row r="15" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="21">
+        <v>43387</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="10"/>

--- a/Document/인턴_김희원_산출물_프로덕트백로그_v1.xlsx
+++ b/Document/인턴_김희원_산출물_프로덕트백로그_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1395" windowWidth="19410" windowHeight="10995"/>
+    <workbookView xWindow="1680" yWindow="1395" windowWidth="19410" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="관리자_개발목록" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="67">
   <si>
     <t>개발자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,9 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>회원 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,19 +367,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유효성 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품구매 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐시 결제 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인 수정 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,11 +1017,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N938"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1427,10 +1416,10 @@
     <row r="15" spans="1:13" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>37</v>
@@ -1455,7 +1444,7 @@
       <c r="A16" s="17"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>37</v>
@@ -1480,7 +1469,7 @@
       <c r="A17" s="17"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>37</v>
@@ -1505,7 +1494,7 @@
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>37</v>
@@ -1530,7 +1519,7 @@
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>37</v>
@@ -1555,7 +1544,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>37</v>
@@ -1579,7 +1568,7 @@
     <row r="21" spans="1:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>43</v>
@@ -1607,7 +1596,7 @@
       <c r="A22" s="17"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>37</v>
@@ -1628,7 +1617,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>37</v>
@@ -1649,7 +1638,7 @@
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>37</v>
@@ -1669,7 +1658,7 @@
     <row r="25" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>43</v>
@@ -1693,7 +1682,7 @@
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>37</v>
@@ -1714,7 +1703,7 @@
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>37</v>
@@ -1735,7 +1724,7 @@
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>37</v>
@@ -1755,13 +1744,13 @@
     <row r="29" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>26</v>
@@ -1769,17 +1758,17 @@
       <c r="F29" s="21">
         <v>43406</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="G29" s="28">
+        <v>43424</v>
+      </c>
+      <c r="H29" s="23"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>37</v>
@@ -1805,7 +1794,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>37</v>
@@ -1825,7 +1814,7 @@
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>37</v>
@@ -1851,7 +1840,7 @@
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>37</v>
@@ -10936,8 +10925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N938"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -10968,7 +10957,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>8</v>
@@ -11302,7 +11291,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>37</v>
@@ -11328,7 +11317,7 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>37</v>
@@ -11358,7 +11347,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>37</v>
@@ -11384,10 +11373,10 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>26</v>
@@ -11395,10 +11384,10 @@
       <c r="G16" s="21">
         <v>43409</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="23" t="s">
-        <v>66</v>
-      </c>
+      <c r="H16" s="21">
+        <v>43424</v>
+      </c>
+      <c r="I16" s="23"/>
       <c r="J16" s="10"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -11412,7 +11401,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>37</v>
@@ -11438,7 +11427,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>37</v>
@@ -11464,7 +11453,7 @@
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>37</v>
@@ -11490,7 +11479,7 @@
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>37</v>
